--- a/biology/Zoologie/Galeichthys_feliceps/Galeichthys_feliceps.xlsx
+++ b/biology/Zoologie/Galeichthys_feliceps/Galeichthys_feliceps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Galeichthys feliceps, appelé communément barbillon blanc, est une espèce de poissons-chats marins de la famille des Ariidés et du genre Galeichthys. Il est présent en Afrique du Sud, de la Namibie jusqu'à Madagascar. On le retrouve également dans le golfe du Mexique[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Galeichthys feliceps, appelé communément barbillon blanc, est une espèce de poissons-chats marins de la famille des Ariidés et du genre Galeichthys. Il est présent en Afrique du Sud, de la Namibie jusqu'à Madagascar. On le retrouve également dans le golfe du Mexique.
 Il est commercialisé pour sa chair vendue fumée.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Décrit Par Achille Valenciennes en 1840, ce poisson chat de grande taille (55 cm environ), brun à ventre blanc, est muni de six barbillons : quatre sous le menton et un de chaque côté de la mâchoire supérieure. Il possède une épine particulièrement venimeuse au début de sa nageoire dorsale.
 </t>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vit dans les fonds marins (2-120 m[5]), notamment dans les fonds boueux, les cavités rocheuses et les estuaires. Il peut également vivre en rivière[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vit dans les fonds marins (2-120 m), notamment dans les fonds boueux, les cavités rocheuses et les estuaires. Il peut également vivre en rivière.
 </t>
         </is>
       </c>
